--- a/biology/Botanique/Parc_des_collines_ocre/Parc_des_collines_ocre.xlsx
+++ b/biology/Botanique/Parc_des_collines_ocre/Parc_des_collines_ocre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc des collines ocre, ou parc Zheshan, Zheshan Park (en caractères chinois, 赭山 公园, en pinyin zhě shān gōng yuán ) est l'une des attractions de la ville de Wuhu.
@@ -514,7 +526,9 @@
           <t>Attractions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc inclut des manèges, un zoo, des aires de jeux. On y trouve aussi des monuments historiques comme la tour ocre de Zheshan (originellement construite en 1065 et reconstruite en 1996), une statue de Mao, la tombe de Liu Xiping ( 刘希平先生墓, Liú Xīpíng xiānshēng mù).
 Le parc est aussi situé à côté du monastère Guangji de Wuhu ( 广济寺, guǎng jì sì ).
@@ -546,7 +560,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est créé en 1933.
 Il a subi des destructions pendant la guerre sino-japonaise et à la fin de la guerre civile chinoise. C'est pourquoi il a dû être complètement réaménagé à partir de 1952. En 1958, les travaux de réhabilitation sont achevés et le zoo ouvre ses portes l'année suivante. 
